--- a/Planner.xlsx
+++ b/Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\droper1\Workspace\AGA307 - Game Dev II\A3-Tower-Defense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D77D11A-D7BA-489A-9A88-5C548FBB21B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2282B19-0FFA-4D10-BB2C-CF5EA24BD08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{69BC25F1-0A00-4991-8BDE-F2A66D7C5D6F}"/>
+    <workbookView xWindow="-23385" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{69BC25F1-0A00-4991-8BDE-F2A66D7C5D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Milestones</t>
   </si>
@@ -101,15 +101,6 @@
     <t>UI</t>
   </si>
   <si>
-    <t>Economy</t>
-  </si>
-  <si>
-    <t>Money?</t>
-  </si>
-  <si>
-    <t>Cards?</t>
-  </si>
-  <si>
     <t>Main Menu</t>
   </si>
   <si>
@@ -123,6 +114,54 @@
   </si>
   <si>
     <t>Pause Menu</t>
+  </si>
+  <si>
+    <t>Make Enemy Move</t>
+  </si>
+  <si>
+    <t>Make Enemy Move from A to B</t>
+  </si>
+  <si>
+    <t>Make Enemy Spawn at A, go to B then die at C</t>
+  </si>
+  <si>
+    <t>Create "Round" system to spawn waves of enemies</t>
+  </si>
+  <si>
+    <t>Create Grid for tower placement</t>
+  </si>
+  <si>
+    <t>Create basic tower that shoots at enemy</t>
+  </si>
+  <si>
+    <t>Build Mode vs Attack Mode</t>
+  </si>
+  <si>
+    <t>Basic Build/Attack UI</t>
+  </si>
+  <si>
+    <t>Multiple Enemies &amp; Towers (min 2)</t>
+  </si>
+  <si>
+    <t>Tower Upgrades</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
+  <si>
+    <t>Towers</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -158,8 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830B6914-359C-41FB-B7E3-4A46F134F4A4}">
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,14 +546,20 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -530,123 +576,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>11</v>
       </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>12</v>
       </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>13</v>
       </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
       <c r="H10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>20</v>
       </c>
       <c r="H20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
+    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
         <v>25</v>
-      </c>
-      <c r="L22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
